--- a/supp_materials/supp_table4.xlsx
+++ b/supp_materials/supp_table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef359c8f53fcc50a/University of Minnesota/PhD/hirsch_lab/projects/marker-effects_networks/supp_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{1B22FB46-4FC1-A84E-B71C-25C34E6E83C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329B7766-E67B-5E44-A752-4BD98AB59A52}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{1B22FB46-4FC1-A84E-B71C-25C34E6E83C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85050446-960F-9A4A-A867-365963AEDC80}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supp_table6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Network</t>
   </si>
@@ -52,7 +52,7 @@
     <t>Z-score</t>
   </si>
   <si>
-    <t>RR-BLUP</t>
+    <t>Markers in network</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +554,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -614,8 +617,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -903,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,19 +918,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,8 +947,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -951,13 +962,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -968,13 +982,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -985,13 +1002,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1002,13 +1022,16 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1019,13 +1042,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F6" s="2">
+        <v>1832</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1036,13 +1062,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F7" s="2">
+        <v>1832</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1053,231 +1082,33 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F8" s="2">
+        <v>1832</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2">
-        <v>50</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3">
-        <v>100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="F9" s="3">
+        <v>1832</v>
       </c>
     </row>
   </sheetData>
